--- a/medicine/Enfance/André_Armandy/André_Armandy.xlsx
+++ b/medicine/Enfance/André_Armandy/André_Armandy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Armandy</t>
+          <t>André_Armandy</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Albert André Aguilard dit André Armandy, né le 29 décembre 1882 dans le 4e arrondissement de Paris[1] et mort le 2 janvier 1958 dans le 16e arrondissement de Paris, est un écrivain français, auteur de nombreux romans pour la jeunesse.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Albert André Aguilard dit André Armandy, né le 29 décembre 1882 dans le 4e arrondissement de Paris et mort le 2 janvier 1958 dans le 16e arrondissement de Paris, est un écrivain français, auteur de nombreux romans pour la jeunesse.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Armandy</t>
+          <t>André_Armandy</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">André Armandy a été traduit dans de nombreuses langues, et plusieurs de ses romans ont été adaptés au cinéma. Le film Le Paradis de Satan, notamment, réalisé par Félix Gandéra, est tiré de l'un de ses romans.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Armandy</t>
+          <t>André_Armandy</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le Yacht Callirhoé, Éditions Jules Tallandier, 1924
 Le Nord qui tue, Éditions Jules Tallandier, 1925
@@ -573,7 +589,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Armandy</t>
+          <t>André_Armandy</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -591,7 +607,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Croix de guerre 1914-1918 avec palme.</t>
         </is>
